--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">ลงนามแทน</t>
@@ -327,15 +327,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,7 +359,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,7 +377,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.44"/>
@@ -398,17 +398,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="10.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="48" style="1" width="2.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="55" style="1" width="2.67"/>
   </cols>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7051FD75-FF34-44C4-8478-528E30D271AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9D92C-998F-4727-9DEB-D25F4C83D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9D92C-998F-4727-9DEB-D25F4C83D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD48B6-80E3-46E6-B099-920EA04B82D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD48B6-80E3-46E6-B099-920EA04B82D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247115B-D2B9-44BD-8970-A43D423F8D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>creationDate</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,7 +911,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>54</v>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247115B-D2B9-44BD-8970-A43D423F8D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A9C69-83BB-4077-922F-BB564A27DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
@@ -911,7 +911,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>54</v>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A9C69-83BB-4077-922F-BB564A27DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADFEC0-6AF7-490F-AE46-27673DD9C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -613,58 +613,57 @@
       <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
     <col min="37" max="38" width="9" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" style="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="1" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="14.44140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="18.44140625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="8.77734375" style="1" customWidth="1"/>
-    <col min="48" max="52" width="2.6640625" style="1"/>
-    <col min="55" max="16384" width="2.6640625" style="1"/>
+    <col min="41" max="41" width="12.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="8.7109375" style="1" customWidth="1"/>
+    <col min="48" max="52" width="2.7109375" style="1"/>
+    <col min="55" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +811,7 @@
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADFEC0-6AF7-490F-AE46-27673DD9C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35F1AB-4C90-4078-8599-645A4110F2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35F1AB-4C90-4078-8599-645A4110F2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425CB0F-8DB6-4D63-B403-C5606C2C052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -310,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -350,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -456,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/05. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB831C-FDE8-4673-93C4-BB97A2CD35ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA0E25-236A-4560-9ADC-3587279D52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -310,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -350,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -456,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +610,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
